--- a/Fleet para hacer 15Feb2023.xlsx
+++ b/Fleet para hacer 15Feb2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B74E9F-7718-425D-A057-4A919DFC6595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0656DB3-5C75-4E22-B021-440C20CD7B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2639AAA9-EF48-4802-B9C3-B8E7B51FC93B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2639AAA9-EF48-4802-B9C3-B8E7B51FC93B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA43810-B107-4776-B7C2-FABCB23F699E}">
   <dimension ref="I1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D0902-4344-4109-8668-8078FE30EC22}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Fleet para hacer 15Feb2023.xlsx
+++ b/Fleet para hacer 15Feb2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0656DB3-5C75-4E22-B021-440C20CD7B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50056331-5796-40A0-BB8E-115BF0A135ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2639AAA9-EF48-4802-B9C3-B8E7B51FC93B}"/>
   </bookViews>
@@ -36,30 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>use obrasOT</t>
   </si>
@@ -98,6 +76,9 @@
   </si>
   <si>
     <t>Mis Archivos / Almacenamiento interno / Android / Data / com.luisnu.fleetdeliveryapp / files / Output.pdf</t>
+  </si>
+  <si>
+    <t>--Volver a cero</t>
   </si>
 </sst>
 </file>
@@ -155,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +147,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -550,7 +532,7 @@
   <dimension ref="I1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,9 +553,8 @@
       </c>
     </row>
     <row r="5" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I5" t="e" cm="1">
-        <f t="array" ref="I5">--Volver a cero</f>
-        <v>#NAME?</v>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.3">

--- a/Fleet para hacer 15Feb2023.xlsx
+++ b/Fleet para hacer 15Feb2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50056331-5796-40A0-BB8E-115BF0A135ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC00694-42DB-451D-9F55-F12290A19FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2639AAA9-EF48-4802-B9C3-B8E7B51FC93B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>use obrasOT</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>--Volver a cero</t>
+  </si>
+  <si>
+    <t>SELECT PROYECTOMODULO, IDREGISTRO, CLIENTE, NOMBRE,ESTADOGAOS, FECHACUMPLIDA, HsCumplida</t>
+  </si>
+  <si>
+    <t>FROM     AsignacionesOTs</t>
+  </si>
+  <si>
+    <t>WHERE  (UserID = 29) AND (ESTADOGAOS = 'EJB') AND (FECHACUMPLIDA = '2023-04-27')</t>
+  </si>
+  <si>
+    <t>ORDER BY FECHACUMPLIDA DESC</t>
   </si>
 </sst>
 </file>
@@ -529,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA43810-B107-4776-B7C2-FABCB23F699E}">
-  <dimension ref="I1:I14"/>
+  <dimension ref="I1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I17" sqref="I17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +587,26 @@
     <row r="14" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
